--- a/medicine/Sexualité et sexologie/Namio_Harukawa/Namio_Harukawa.xlsx
+++ b/medicine/Sexualité et sexologie/Namio_Harukawa/Namio_Harukawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Namio Harukawa (春川ナミオ, Harukawa Namio?), né en 1947 à Osaka et mort le 24 avril 2020, est un artiste japonais dans le domaine du dessin érotique[1],[2].
-Namio Harukawa est un nom de plume : Namio est l’anagramme de Naomi, prénom de l'héroïne du roman Un amour insensé de Jun'ichirō Tanizaki, et Harukawa est issu du nom de l'actrice japonaise Masumi Harukawa[3].
-Son art, qui s'inscrit dans le registre du fétichisme et du sado-masochisme, dépeint des femmes rondes callipyges dominant et humiliant des hommes minces, généralement à travers la pratique du facesitting[4],[2].
-Sa première exposition en dehors du Japon a lieu à Paris en 2013[3],[5].
-Il a travaillé comme consultant sur plusieurs tournages pornographiques. Il a également réalisé les jaquettes de films pour le studio Kitagawa Pro[6].
-Kana Ohara, l'héroïne de Garden of Domina était une ancienne joueuse de volleyball. Elle aurait inspiré l'engouement autour de Sabina Altynbekova, deux ans plus tard[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Namio Harukawa (春川ナミオ, Harukawa Namio?), né en 1947 à Osaka et mort le 24 avril 2020, est un artiste japonais dans le domaine du dessin érotique,.
+Namio Harukawa est un nom de plume : Namio est l’anagramme de Naomi, prénom de l'héroïne du roman Un amour insensé de Jun'ichirō Tanizaki, et Harukawa est issu du nom de l'actrice japonaise Masumi Harukawa.
+Son art, qui s'inscrit dans le registre du fétichisme et du sado-masochisme, dépeint des femmes rondes callipyges dominant et humiliant des hommes minces, généralement à travers la pratique du facesitting,.
+Sa première exposition en dehors du Japon a lieu à Paris en 2013,.
+Il a travaillé comme consultant sur plusieurs tournages pornographiques. Il a également réalisé les jaquettes de films pour le studio Kitagawa Pro.
+Kana Ohara, l'héroïne de Garden of Domina était une ancienne joueuse de volleyball. Elle aurait inspiré l'engouement autour de Sabina Altynbekova, deux ans plus tard.
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Namio Harukawa, Callipyge, United Dead Artists, 2008, 32 p.
 Namio Harukawa, Maxi Cula, United Dead Artists, 2012, 156 p. (ISBN 978-2-37543-018-7)
